--- a/Data/Diccionario IEFIC.xlsx
+++ b/Data/Diccionario IEFIC.xlsx
@@ -299,7 +299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,7 +328,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,15 +336,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,15 +751,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="78.38"/>
   </cols>
   <sheetData>
@@ -775,7 +771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
@@ -822,6 +818,10 @@
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -847,8 +847,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,18 +860,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -899,31 +899,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>50</v>
       </c>
     </row>
